--- a/samples/data/test_data.xlsx
+++ b/samples/data/test_data.xlsx
@@ -1058,7 +1058,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
@@ -1098,7 +1098,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" ht="15" customHeight="1" spans="1:4">
       <c r="A3" s="3"/>
       <c r="B3" s="3" t="s">
         <v>7</v>
